--- a/biology/Botanique/Pulsatilla_alpina/Pulsatilla_alpina.xlsx
+++ b/biology/Botanique/Pulsatilla_alpina/Pulsatilla_alpina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Anémone des Alpes ou Pulsatille des Alpes (Pulsatilla alpina) est une espèce de plante à fleurs de la famille des Renonculacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Anemone alpina L., 1753</t>
         </is>
@@ -541,7 +555,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chez la sous-espèce la plus courante Pulsatilla alpina subsp. alpina, les fleurs sont blanches (sous-espèce préférant les sols calcaires).
 La sous-espèce Pulsatilla alpina subsp. apiifolia ou "Anémone soufrée" a des fleurs de couleur jaune (elle caractérise les sols siliceux).
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée vivace. Elle mesure de 15 à 35 centimètres (les tiges se développent particulièrement après la floraison)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace. Elle mesure de 15 à 35 centimètres (les tiges se développent particulièrement après la floraison).
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette anémone se rencontre en montagne, essentiellement dans les prairies et les pelouses.
 </t>
@@ -635,9 +655,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Anémone des Alpes croît à des altitudes comprises entre 1 000 et 2 750 m[1] dans les régions montagneuses d'Europe centrale, occidentale et méridionale (Alpes, Vosges, Auvergne, Pyrénées, Apennins...)
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Anémone des Alpes croît à des altitudes comprises entre 1 000 et 2 750 m dans les régions montagneuses d'Europe centrale, occidentale et méridionale (Alpes, Vosges, Auvergne, Pyrénées, Apennins...)
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme beaucoup de renonculacées, ces plantes sont toxiques.
 </t>
